--- a/biology/Zoologie/Les_Aventures_de_Petit_Ours_Brun/Les_Aventures_de_Petit_Ours_Brun.xlsx
+++ b/biology/Zoologie/Les_Aventures_de_Petit_Ours_Brun/Les_Aventures_de_Petit_Ours_Brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aventures de Petit Ours Brun est une série télévisée d'animation française en 52 épisodes de trois minutes, créée d'après le personnage éponyme de Claude Lebrun et Danièle Bour. Elle est diffusée entre le 20 octobre 2003 et le 26 août 2022[1] sur France 5 dans l'émission Les Zouzous puis dans les émissions Ludo Zouzous, Zouzous et Okoo, mais également sur France 3 dans l'émission France Truc le 5 juillet 2005[2] et Playhouse Disney puis Disney Junior[réf. nécessaire].  
-Au Québec, elle a été diffusée à partir du 13 septembre 2004 à Télé-Québec[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aventures de Petit Ours Brun est une série télévisée d'animation française en 52 épisodes de trois minutes, créée d'après le personnage éponyme de Claude Lebrun et Danièle Bour. Elle est diffusée entre le 20 octobre 2003 et le 26 août 2022 sur France 5 dans l'émission Les Zouzous puis dans les émissions Ludo Zouzous, Zouzous et Okoo, mais également sur France 3 dans l'émission France Truc le 5 juillet 2005 et Playhouse Disney puis Disney Junior[réf. nécessaire].  
+Au Québec, elle a été diffusée à partir du 13 septembre 2004 à Télé-Québec.
 La série reprend l'univers de la première adaptation Petit Ours Brun, diffusée à partir de 1988.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au travers des aventures d'un ourson, cette série met en scène la vie d'un enfant de 3 ans dans des situations quotidiennes et universelles.
 </t>
@@ -544,9 +558,11 @@
           <t>Distribution (voix françaises)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Antoine Bonnaire : Petit Ours Brun[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antoine Bonnaire : Petit Ours Brun
 Ivana Coppola : Maman Ours
 Pierre Forest : Papa Ours
 Isabelle Giami : la narratrice
@@ -578,7 +594,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Petit Ours Brun se lève tôt
